--- a/NHAP-SACH.xlsx
+++ b/NHAP-SACH.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr codeName="Sô_la_mviê_cNa_y" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WebsiteBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79C7EB0-4019-487D-A80B-40B4507EBD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9216C0EC-C71B-42D3-AD95-DA002139FBB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B74F0604-9A2C-47D1-9B4D-E0DAAB0B0632}"/>
   </bookViews>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>TenSP</t>
   </si>
@@ -110,73 +110,75 @@
     <t>Còn hàng</t>
   </si>
   <si>
-    <t>product_1.jpeg</t>
-  </si>
-  <si>
-    <t>product_2.jpeg</t>
-  </si>
-  <si>
-    <t>Khi Mọi Điều Không Như Ý</t>
-  </si>
-  <si>
-    <t>Tâm Lý Học Về Tiền</t>
-  </si>
-  <si>
-    <t>How Psychology Works - Hiểu Hết Về Tâm Lý Học</t>
-  </si>
-  <si>
-    <t>Dám Bị Ghét</t>
-  </si>
-  <si>
-    <t>2030: Những Xu Hướng Lớn Sẽ Định Hình Thế Giới Tương Lai (Tái Bản 2023)</t>
-  </si>
-  <si>
-    <t>Tâm Lý Học Thành Công</t>
-  </si>
-  <si>
-    <t>Định Luật Murphy - Mọi Bí Mật Tâm Lý Thao Túng Cuộc Đời Bạn</t>
-  </si>
-  <si>
-    <t>Khi Mọi Điều Không Như Ý - Bìa cứng</t>
-  </si>
-  <si>
-    <t>2030xuhuonglon.jpg</t>
-  </si>
-  <si>
-    <t>dambighet.jpg</t>
-  </si>
-  <si>
-    <t>dinhluatmurphy.jpg</t>
-  </si>
-  <si>
-    <t>how.jpg</t>
-  </si>
-  <si>
-    <t>khimoidieukhongnhuy.jpg</t>
-  </si>
-  <si>
-    <t>khimoidieukhongnhuy_biacung.jpg</t>
+    <t>ISBN</t>
+  </si>
+  <si>
+    <t>SoTrang</t>
+  </si>
+  <si>
+    <t>NgonNgu</t>
+  </si>
+  <si>
+    <t>LuotXem</t>
+  </si>
+  <si>
+    <t>KichThuoc</t>
+  </si>
+  <si>
+    <t>TrongLuong</t>
+  </si>
+  <si>
+    <t>Điều Kỳ Diệu Của Tiệm Tạp Hóa Namiya</t>
+  </si>
+  <si>
+    <t>Điều Kỳ Diệu Của Tiệm Tạp Hóa Namiya
+Một đêm vội vã lẩn trốn sau phi vụ khoắng đồ nhà người, Atsuya, Shota và Kouhei đã rẽ vào lánh tạm trong một căn nhà hoang bên con dốc vắng người qua lại. Căn nhà có vẻ khi xưa là một tiệm tạp hóa với biển hiệu cũ kỹ bám đầy bồ hóng, khiến người ta khó lòng đọc được trên đó viết gì. Định bụng nghỉ tạm một đêm rồi sáng hôm sau chuồn sớm, cả ba không ngờ chờ đợi cả bọn sẽ là một đêm không ngủ, với bao điều kỳ bí bắt đầu từ một phong thư bất ngờ gửi đến…
+Tài kể chuyện hơn người đã giúp Keigo khéo léo thay đổi các mốc dấu thời gian và không gian, chắp nối những câu chuyện tưởng chừng hoàn toàn riêng rẽ thành một kết cấu chặt chẽ, gây bất ngờ từ đầu tới cuối.</t>
+  </si>
+  <si>
+    <t>8935235244177.jpeg</t>
+  </si>
+  <si>
+    <t>8765720163427</t>
+  </si>
+  <si>
+    <t>Tiếng việt</t>
+  </si>
+  <si>
+    <t>24x50x30cm</t>
+  </si>
+  <si>
+    <t>NgayPhatHanh</t>
+  </si>
+  <si>
+    <t>15/06/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,7 +189,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -195,31 +197,654 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,8 +861,8 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Dữ_liệu_Bên_ngoài_1" backgroundRefresh="0" connectionId="1" xr16:uid="{1B58F2D5-19DB-432C-8114-8BB1D1E81EF6}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="12">
-    <queryTableFields count="10">
+  <queryTableRefresh nextId="21" unboundColumnsRight="7">
+    <queryTableFields count="17">
       <queryTableField id="2" name="TenSP" tableColumnId="2"/>
       <queryTableField id="3" name="MoTa" tableColumnId="3"/>
       <queryTableField id="4" name="IDtl" tableColumnId="4"/>
@@ -248,6 +873,13 @@
       <queryTableField id="9" name="IDkm" tableColumnId="9"/>
       <queryTableField id="10" name="SoLuong" tableColumnId="10"/>
       <queryTableField id="11" name="TrangThaiSach" tableColumnId="11"/>
+      <queryTableField id="13" dataBound="0" tableColumnId="12"/>
+      <queryTableField id="14" dataBound="0" tableColumnId="13"/>
+      <queryTableField id="15" dataBound="0" tableColumnId="14"/>
+      <queryTableField id="16" dataBound="0" tableColumnId="15"/>
+      <queryTableField id="17" dataBound="0" tableColumnId="16"/>
+      <queryTableField id="18" dataBound="0" tableColumnId="17"/>
+      <queryTableField id="20" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="IDsp"/>
@@ -262,19 +894,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ED7C312-49BC-440F-A58D-52C170BD4BAF}" name="SanPham" displayName="SanPham" ref="A1:J9" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:J9" xr:uid="{2ED7C312-49BC-440F-A58D-52C170BD4BAF}"/>
-  <tableColumns count="10">
-    <tableColumn id="2" xr3:uid="{C9BA94A9-3E66-4F0B-8594-0E96C3AD657F}" uniqueName="2" name="TenSP" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1455A099-927E-4324-9CE5-70F2FE2E40CE}" uniqueName="3" name="MoTa" queryTableFieldId="3" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{20D99B07-A26E-47F7-82D2-9CC88FEFE656}" uniqueName="4" name="IDtl" queryTableFieldId="4"/>
-    <tableColumn id="5" xr3:uid="{E80DD3FA-EC21-423C-B28E-42DCF259792F}" uniqueName="5" name="GiaBan" queryTableFieldId="5"/>
-    <tableColumn id="6" xr3:uid="{F5E9E454-052B-4A51-9135-0E597BBFDA1C}" uniqueName="6" name="HinhAnh" queryTableFieldId="6" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{3AEEBBF1-F6F3-49C3-A887-C1751659AA98}" uniqueName="7" name="IDtg" queryTableFieldId="7"/>
-    <tableColumn id="8" xr3:uid="{C2804AC3-4986-46F3-A692-660A159C262B}" uniqueName="8" name="IDnxb" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{2F119894-F790-4254-9673-AD8B4ADECCD1}" uniqueName="9" name="IDkm" queryTableFieldId="9"/>
-    <tableColumn id="10" xr3:uid="{355EA37B-C4FA-44E2-97BB-FF672555EAE6}" uniqueName="10" name="SoLuong" queryTableFieldId="10"/>
-    <tableColumn id="11" xr3:uid="{78D96B9F-3CEE-49D3-8269-B327E92638E3}" uniqueName="11" name="TrangThaiSach" queryTableFieldId="11" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ED7C312-49BC-440F-A58D-52C170BD4BAF}" name="SanPham" displayName="SanPham" ref="A1:Q9" tableType="queryTable" totalsRowShown="0" dataDxfId="17">
+  <autoFilter ref="A1:Q9" xr:uid="{2ED7C312-49BC-440F-A58D-52C170BD4BAF}"/>
+  <tableColumns count="17">
+    <tableColumn id="2" xr3:uid="{C9BA94A9-3E66-4F0B-8594-0E96C3AD657F}" uniqueName="2" name="TenSP" queryTableFieldId="2" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{1455A099-927E-4324-9CE5-70F2FE2E40CE}" uniqueName="3" name="MoTa" queryTableFieldId="3" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{20D99B07-A26E-47F7-82D2-9CC88FEFE656}" uniqueName="4" name="IDtl" queryTableFieldId="4" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E80DD3FA-EC21-423C-B28E-42DCF259792F}" uniqueName="5" name="GiaBan" queryTableFieldId="5" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{F5E9E454-052B-4A51-9135-0E597BBFDA1C}" uniqueName="6" name="HinhAnh" queryTableFieldId="6" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{3AEEBBF1-F6F3-49C3-A887-C1751659AA98}" uniqueName="7" name="IDtg" queryTableFieldId="7" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{C2804AC3-4986-46F3-A692-660A159C262B}" uniqueName="8" name="IDnxb" queryTableFieldId="8" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{2F119894-F790-4254-9673-AD8B4ADECCD1}" uniqueName="9" name="IDkm" queryTableFieldId="9" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{355EA37B-C4FA-44E2-97BB-FF672555EAE6}" uniqueName="10" name="SoLuong" queryTableFieldId="10" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{78D96B9F-3CEE-49D3-8269-B327E92638E3}" uniqueName="11" name="TrangThaiSach" queryTableFieldId="11" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{EE98E166-FA75-47F5-BDE7-EBA9FEE2C129}" uniqueName="12" name="ISBN" queryTableFieldId="13" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{9E251D48-55EA-4CDE-9E79-09B255FE9351}" uniqueName="13" name="SoTrang" queryTableFieldId="14" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{BDA09220-1403-4FE3-B615-2652F52BDACD}" uniqueName="14" name="NgonNgu" queryTableFieldId="15" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{022572FF-805E-41D8-84B5-46EA3B566CFC}" uniqueName="15" name="LuotXem" queryTableFieldId="16" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{BE1EB6AF-F9C9-4303-92EB-67A0408859B1}" uniqueName="16" name="KichThuoc" queryTableFieldId="17" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{40A45076-BD98-4E1A-BE9F-1202AFE5413B}" uniqueName="17" name="TrongLuong" queryTableFieldId="18" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E2F5A05E-8F61-473A-AAB0-0FF6A8147011}" uniqueName="1" name="NgayPhatHanh" queryTableFieldId="20" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -597,27 +1236,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B55EFC-A836-4CCF-84C8-EBF1E6C1D86A}">
-  <dimension ref="A1:J9"/>
+  <sheetPr codeName="Trang_tính1"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="66.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="89.296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.296875" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.69921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="199.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,325 +1294,213 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="str">
-        <f ca="1">CONCATENATE(CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)))</f>
-        <v>DFZRRBKECWRAJVJGBSVUMTQWBITKYL</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <f ca="1">RANDBETWEEN(10000,632161)</f>
-        <v>305021</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <f ca="1">RANDBETWEEN(1,11)</f>
-        <v>7</v>
-      </c>
-      <c r="I2">
-        <f ca="1">RANDBETWEEN(10,50)</f>
+    <row r="2" spans="1:17" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>120000</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="K2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="1">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="str">
-        <f ca="1">CONCATENATE(CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)))</f>
-        <v>QGTOEFUGVTADAJLRNPWWAXUJPNDZPR</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D9" ca="1" si="0">RANDBETWEEN(10000,632161)</f>
-        <v>119210</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F9" ca="1" si="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G9" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H9" ca="1" si="3">RANDBETWEEN(1,11)</f>
-        <v>10</v>
-      </c>
-      <c r="I3">
-        <f t="shared" ref="I3:I9" ca="1" si="4">RANDBETWEEN(10,50)</f>
-        <v>44</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ref="B4:B9" ca="1" si="5">CONCATENATE(CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)),
-CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)), CHAR(RANDBETWEEN(65,90)))</f>
-        <v>RXXAPEIUFSNSPLKWQKMXPHQQUZPDPM</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>558558</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H4">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="I4">
-        <f t="shared" ca="1" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
-    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>CMAAUXNNQDMLMYPKFNESNDOWKJRYIF</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>572973</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <f t="shared" ca="1" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>ERGATLHPAAQEUYTPPVZYQRPVRKYNWS</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>449065</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>10</v>
-      </c>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>HYCHONIONKFWBCXITBJKKSRCLXAYXV</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>495533</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <f t="shared" ca="1" si="3"/>
-        <v>11</v>
-      </c>
-      <c r="I7">
-        <f t="shared" ca="1" si="4"/>
-        <v>20</v>
-      </c>
-      <c r="J7" t="s">
-        <v>10</v>
-      </c>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
     </row>
-    <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>GPGJGCKFSSABTHVFOUCUBJCALJRTKX</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>300317</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <f t="shared" ca="1" si="4"/>
-        <v>22</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" ca="1" si="5"/>
-        <v>UJDRMRBKEUUDQGRKCKUHODPJNKUJLT</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>404006</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <f t="shared" ca="1" si="4"/>
-        <v>49</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
